--- a/BankRecon/template/Bank-Reconciliation-template.xlsx
+++ b/BankRecon/template/Bank-Reconciliation-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\myxfin_st\BankRecon\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB6933-5135-48F4-B0BA-63FF78BE501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50B6477-ABD1-472F-A5E6-7768B76BEB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{289E5180-982B-4D04-90DA-B3A97BDAB1D3}"/>
+    <workbookView xWindow="585" yWindow="975" windowWidth="19905" windowHeight="9825" xr2:uid="{289E5180-982B-4D04-90DA-B3A97BDAB1D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <r>
       <t xml:space="preserve">DATE </t>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>BALANCE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cheque Name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -449,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93BC6EC-DE9C-46F5-BE78-C0383218A8B7}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G1" activeCellId="1" sqref="A2:XFD1048576 G1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,22 +477,26 @@
     <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/BankRecon/template/Bank-Reconciliation-template.xlsx
+++ b/BankRecon/template/Bank-Reconciliation-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50B6477-ABD1-472F-A5E6-7768B76BEB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B775C54F-448A-47FA-96CA-E4743661C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="975" windowWidth="19905" windowHeight="9825" xr2:uid="{289E5180-982B-4D04-90DA-B3A97BDAB1D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{289E5180-982B-4D04-90DA-B3A97BDAB1D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Cheque Name </t>
+      <t xml:space="preserve">Name </t>
     </r>
     <r>
       <rPr>
